--- a/BedivereKnx.GUI/data.xlsx
+++ b/BedivereKnx.GUI/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnxClient\BedivereKnxClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnx\BedivereKnx.GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ACB98B-5386-4A34-97C2-2735488B106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C839F91-E46A-45B1-AECA-5B3DC5130ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="4" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1427">
   <si>
     <t>AreaCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3054,18 +3054,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IpTunnel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Usb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IpRouter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dimming</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4640,6 +4632,17 @@
   </si>
   <si>
     <t>Val_Fdb_GrpAddr</t>
+  </si>
+  <si>
+    <t>IpTunneling</t>
+  </si>
+  <si>
+    <t>IpTunneling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IpRouting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5015,9 +5018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5F1EF3-A557-420C-BEFD-BB2F582D7A5A}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5040,7 +5043,7 @@
         <v>913</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -5071,7 +5074,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>915</v>
+        <v>1424</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -5088,7 +5091,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>915</v>
+        <v>1424</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -5105,7 +5108,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>915</v>
+        <v>1424</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -5122,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>915</v>
+        <v>1424</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -5139,7 +5142,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>915</v>
+        <v>1424</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -5156,7 +5159,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>915</v>
+        <v>1424</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -5173,7 +5176,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>915</v>
+        <v>1424</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -5220,22 +5223,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -5263,12 +5266,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -5738,7 +5741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9671D8-C670-4FF9-9F5F-C699E4CE0AC7}">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5769,22 +5772,22 @@
         <v>911</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1423</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5801,25 +5804,25 @@
         <v>240</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5839,7 +5842,7 @@
         <v>771</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>104</v>
@@ -5865,7 +5868,7 @@
         <v>772</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>106</v>
@@ -5891,7 +5894,7 @@
         <v>773</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>107</v>
@@ -5917,7 +5920,7 @@
         <v>774</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>108</v>
@@ -5943,7 +5946,7 @@
         <v>775</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>109</v>
@@ -5969,7 +5972,7 @@
         <v>776</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>110</v>
@@ -5995,7 +5998,7 @@
         <v>777</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>111</v>
@@ -6021,7 +6024,7 @@
         <v>778</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>112</v>
@@ -6047,7 +6050,7 @@
         <v>779</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>113</v>
@@ -6073,7 +6076,7 @@
         <v>780</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>114</v>
@@ -6099,7 +6102,7 @@
         <v>781</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>115</v>
@@ -6122,7 +6125,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>116</v>
@@ -6145,7 +6148,7 @@
         <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>117</v>
@@ -6168,7 +6171,7 @@
         <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>118</v>
@@ -6191,7 +6194,7 @@
         <v>71</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>119</v>
@@ -6214,7 +6217,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>120</v>
@@ -6237,7 +6240,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>121</v>
@@ -6260,7 +6263,7 @@
         <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>122</v>
@@ -6286,7 +6289,7 @@
         <v>782</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>123</v>
@@ -6309,7 +6312,7 @@
         <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>124</v>
@@ -6335,7 +6338,7 @@
         <v>772</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>125</v>
@@ -6361,7 +6364,7 @@
         <v>783</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>126</v>
@@ -6387,7 +6390,7 @@
         <v>781</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>127</v>
@@ -6410,7 +6413,7 @@
         <v>71</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>128</v>
@@ -6433,7 +6436,7 @@
         <v>71</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>129</v>
@@ -6456,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>130</v>
@@ -6479,7 +6482,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>131</v>
@@ -6502,7 +6505,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>132</v>
@@ -6525,7 +6528,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>133</v>
@@ -6548,7 +6551,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>134</v>
@@ -6571,7 +6574,7 @@
         <v>71</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>135</v>
@@ -6594,7 +6597,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>136</v>
@@ -6620,7 +6623,7 @@
         <v>775</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>200</v>
@@ -6646,7 +6649,7 @@
         <v>784</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>844</v>
@@ -6672,7 +6675,7 @@
         <v>771</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>845</v>
@@ -6698,7 +6701,7 @@
         <v>774</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>846</v>
@@ -6724,7 +6727,7 @@
         <v>773</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>847</v>
@@ -6750,7 +6753,7 @@
         <v>776</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>848</v>
@@ -6776,7 +6779,7 @@
         <v>777</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>849</v>
@@ -6802,7 +6805,7 @@
         <v>778</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>850</v>
@@ -6828,7 +6831,7 @@
         <v>779</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>851</v>
@@ -6854,7 +6857,7 @@
         <v>780</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>852</v>
@@ -6877,7 +6880,7 @@
         <v>71</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>853</v>
@@ -6900,7 +6903,7 @@
         <v>71</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>854</v>
@@ -6923,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>855</v>
@@ -6946,7 +6949,7 @@
         <v>71</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>856</v>
@@ -6969,7 +6972,7 @@
         <v>71</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>857</v>
@@ -6992,7 +6995,7 @@
         <v>71</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>858</v>
@@ -7015,7 +7018,7 @@
         <v>71</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>859</v>
@@ -7038,7 +7041,7 @@
         <v>71</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>860</v>
@@ -7064,7 +7067,7 @@
         <v>782</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>861</v>
@@ -7087,7 +7090,7 @@
         <v>71</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>862</v>
@@ -7113,7 +7116,7 @@
         <v>772</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>863</v>
@@ -7139,7 +7142,7 @@
         <v>772</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>864</v>
@@ -7165,7 +7168,7 @@
         <v>772</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>865</v>
@@ -7191,7 +7194,7 @@
         <v>772</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>866</v>
@@ -7217,7 +7220,7 @@
         <v>772</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>867</v>
@@ -7243,7 +7246,7 @@
         <v>772</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>868</v>
@@ -7269,7 +7272,7 @@
         <v>772</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>869</v>
@@ -7295,7 +7298,7 @@
         <v>772</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>870</v>
@@ -7321,7 +7324,7 @@
         <v>784</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>871</v>
@@ -7344,7 +7347,7 @@
         <v>71</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>872</v>
@@ -7367,7 +7370,7 @@
         <v>71</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>873</v>
@@ -7390,7 +7393,7 @@
         <v>71</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>874</v>
@@ -7416,7 +7419,7 @@
         <v>772</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>348</v>
@@ -7439,7 +7442,7 @@
         <v>71</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>351</v>
@@ -7462,7 +7465,7 @@
         <v>71</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>354</v>
@@ -7488,7 +7491,7 @@
         <v>774</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>357</v>
@@ -7511,7 +7514,7 @@
         <v>71</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>360</v>
@@ -7537,7 +7540,7 @@
         <v>776</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>363</v>
@@ -7560,7 +7563,7 @@
         <v>71</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>366</v>
@@ -7586,7 +7589,7 @@
         <v>778</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>369</v>
@@ -7612,7 +7615,7 @@
         <v>779</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>372</v>
@@ -7638,7 +7641,7 @@
         <v>780</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>375</v>
@@ -7664,7 +7667,7 @@
         <v>775</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>378</v>
@@ -7687,7 +7690,7 @@
         <v>71</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>381</v>
@@ -7713,7 +7716,7 @@
         <v>777</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>384</v>
@@ -7739,7 +7742,7 @@
         <v>773</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>387</v>
@@ -7765,7 +7768,7 @@
         <v>771</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>390</v>
@@ -7791,7 +7794,7 @@
         <v>808</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>393</v>
@@ -7814,7 +7817,7 @@
         <v>71</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>396</v>
@@ -7840,7 +7843,7 @@
         <v>782</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>399</v>
@@ -7863,7 +7866,7 @@
         <v>71</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>402</v>
@@ -7886,7 +7889,7 @@
         <v>71</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>405</v>
@@ -7912,7 +7915,7 @@
         <v>772</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>408</v>
@@ -7938,7 +7941,7 @@
         <v>772</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>411</v>
@@ -7964,7 +7967,7 @@
         <v>772</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>414</v>
@@ -7990,7 +7993,7 @@
         <v>772</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>417</v>
@@ -8016,7 +8019,7 @@
         <v>772</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>420</v>
@@ -8042,7 +8045,7 @@
         <v>772</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>423</v>
@@ -8068,7 +8071,7 @@
         <v>772</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>426</v>
@@ -8094,7 +8097,7 @@
         <v>809</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>429</v>
@@ -8120,7 +8123,7 @@
         <v>809</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>432</v>
@@ -8146,7 +8149,7 @@
         <v>809</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>435</v>
@@ -8172,7 +8175,7 @@
         <v>808</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>438</v>
@@ -8195,7 +8198,7 @@
         <v>71</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>441</v>
@@ -8218,7 +8221,7 @@
         <v>71</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>444</v>
@@ -8241,7 +8244,7 @@
         <v>71</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>447</v>
@@ -8264,7 +8267,7 @@
         <v>71</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>450</v>
@@ -8287,7 +8290,7 @@
         <v>71</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>453</v>
@@ -8310,7 +8313,7 @@
         <v>71</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>456</v>
@@ -8333,7 +8336,7 @@
         <v>71</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>459</v>
@@ -8356,7 +8359,7 @@
         <v>71</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>462</v>
@@ -8379,7 +8382,7 @@
         <v>71</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>465</v>
@@ -8402,7 +8405,7 @@
         <v>71</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>468</v>
@@ -8425,7 +8428,7 @@
         <v>71</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>471</v>
@@ -8448,7 +8451,7 @@
         <v>71</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>474</v>
@@ -8471,7 +8474,7 @@
         <v>71</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>477</v>
@@ -8497,7 +8500,7 @@
         <v>810</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>482</v>
@@ -8523,7 +8526,7 @@
         <v>811</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>485</v>
@@ -8549,7 +8552,7 @@
         <v>812</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>488</v>
@@ -8575,7 +8578,7 @@
         <v>812</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>491</v>
@@ -8601,7 +8604,7 @@
         <v>813</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>494</v>
@@ -8627,7 +8630,7 @@
         <v>813</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>497</v>
@@ -8653,7 +8656,7 @@
         <v>813</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>500</v>
@@ -8679,7 +8682,7 @@
         <v>814</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>503</v>
@@ -8702,7 +8705,7 @@
         <v>71</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>506</v>
@@ -8725,7 +8728,7 @@
         <v>71</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>509</v>
@@ -8748,7 +8751,7 @@
         <v>71</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>512</v>
@@ -8771,7 +8774,7 @@
         <v>71</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>515</v>
@@ -8797,7 +8800,7 @@
         <v>815</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>518</v>
@@ -8820,7 +8823,7 @@
         <v>71</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>521</v>
@@ -8843,7 +8846,7 @@
         <v>71</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>524</v>
@@ -8866,7 +8869,7 @@
         <v>71</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>527</v>
@@ -8892,7 +8895,7 @@
         <v>816</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>530</v>
@@ -8918,7 +8921,7 @@
         <v>817</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>533</v>
@@ -8944,7 +8947,7 @@
         <v>815</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>536</v>
@@ -8970,7 +8973,7 @@
         <v>818</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>539</v>
@@ -8996,7 +8999,7 @@
         <v>819</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>542</v>
@@ -9022,7 +9025,7 @@
         <v>820</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>545</v>
@@ -9048,7 +9051,7 @@
         <v>819</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>548</v>
@@ -9074,7 +9077,7 @@
         <v>821</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>551</v>
@@ -9100,7 +9103,7 @@
         <v>822</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>554</v>
@@ -9126,7 +9129,7 @@
         <v>817</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>557</v>
@@ -9149,7 +9152,7 @@
         <v>71</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>560</v>
@@ -9172,7 +9175,7 @@
         <v>71</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>563</v>
@@ -9198,7 +9201,7 @@
         <v>809</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>566</v>
@@ -9221,7 +9224,7 @@
         <v>71</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>569</v>
@@ -9244,7 +9247,7 @@
         <v>71</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>572</v>
@@ -9267,7 +9270,7 @@
         <v>71</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>575</v>
@@ -9293,7 +9296,7 @@
         <v>823</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>594</v>
@@ -9319,7 +9322,7 @@
         <v>824</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>597</v>
@@ -9345,7 +9348,7 @@
         <v>821</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>600</v>
@@ -9371,7 +9374,7 @@
         <v>825</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>603</v>
@@ -9397,7 +9400,7 @@
         <v>826</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>606</v>
@@ -9423,7 +9426,7 @@
         <v>772</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>609</v>
@@ -9440,7 +9443,7 @@
         <v>32</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>71</v>
@@ -9449,7 +9452,7 @@
         <v>772</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>611</v>
@@ -9475,7 +9478,7 @@
         <v>772</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>614</v>
@@ -9501,7 +9504,7 @@
         <v>827</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>617</v>
@@ -9524,7 +9527,7 @@
         <v>71</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>620</v>
@@ -9550,7 +9553,7 @@
         <v>809</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>623</v>
@@ -9573,7 +9576,7 @@
         <v>71</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>626</v>
@@ -9599,7 +9602,7 @@
         <v>828</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>629</v>
@@ -9625,7 +9628,7 @@
         <v>829</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>632</v>
@@ -9651,7 +9654,7 @@
         <v>824</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>635</v>
@@ -9677,7 +9680,7 @@
         <v>830</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>638</v>
@@ -9703,7 +9706,7 @@
         <v>831</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>641</v>
@@ -9729,7 +9732,7 @@
         <v>821</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>644</v>
@@ -9752,7 +9755,7 @@
         <v>71</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>647</v>
@@ -9775,7 +9778,7 @@
         <v>71</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>650</v>
@@ -9798,7 +9801,7 @@
         <v>71</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>653</v>
@@ -9821,7 +9824,7 @@
         <v>71</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>656</v>
@@ -9847,7 +9850,7 @@
         <v>809</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>659</v>
@@ -9870,7 +9873,7 @@
         <v>71</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>662</v>
@@ -9896,7 +9899,7 @@
         <v>772</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>689</v>
@@ -9922,7 +9925,7 @@
         <v>772</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>692</v>
@@ -9948,7 +9951,7 @@
         <v>772</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>695</v>
@@ -9974,7 +9977,7 @@
         <v>772</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>698</v>
@@ -9991,7 +9994,7 @@
         <v>33</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>71</v>
@@ -10000,7 +10003,7 @@
         <v>833</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>700</v>
@@ -10026,7 +10029,7 @@
         <v>834</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>703</v>
@@ -10043,7 +10046,7 @@
         <v>33</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>71</v>
@@ -10052,7 +10055,7 @@
         <v>835</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>705</v>
@@ -10078,7 +10081,7 @@
         <v>835</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>708</v>
@@ -10104,7 +10107,7 @@
         <v>835</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>711</v>
@@ -10127,7 +10130,7 @@
         <v>71</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>714</v>
@@ -10150,7 +10153,7 @@
         <v>71</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>717</v>
@@ -10173,7 +10176,7 @@
         <v>71</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>720</v>
@@ -10199,7 +10202,7 @@
         <v>821</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>723</v>
@@ -10225,7 +10228,7 @@
         <v>836</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>726</v>
@@ -10251,7 +10254,7 @@
         <v>836</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>729</v>
@@ -10277,7 +10280,7 @@
         <v>837</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>732</v>
@@ -10303,7 +10306,7 @@
         <v>838</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>735</v>
@@ -10329,7 +10332,7 @@
         <v>821</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>738</v>
@@ -10355,7 +10358,7 @@
         <v>839</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>741</v>
@@ -10381,7 +10384,7 @@
         <v>840</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>744</v>
@@ -10407,7 +10410,7 @@
         <v>841</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>747</v>
@@ -10430,7 +10433,7 @@
         <v>71</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>750</v>
@@ -10456,7 +10459,7 @@
         <v>832</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>753</v>
@@ -10479,7 +10482,7 @@
         <v>71</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>756</v>
@@ -10502,7 +10505,7 @@
         <v>71</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>759</v>
@@ -10528,7 +10531,7 @@
         <v>842</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>762</v>
@@ -10554,7 +10557,7 @@
         <v>843</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>765</v>
@@ -10577,7 +10580,7 @@
         <v>71</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>768</v>
@@ -10603,7 +10606,7 @@
         <v>832</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>665</v>
@@ -10629,7 +10632,7 @@
         <v>809</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>668</v>
@@ -10655,7 +10658,7 @@
         <v>809</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>671</v>
@@ -10678,7 +10681,7 @@
         <v>71</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>674</v>
@@ -10701,7 +10704,7 @@
         <v>71</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>677</v>
@@ -10724,7 +10727,7 @@
         <v>71</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>680</v>
@@ -10747,7 +10750,7 @@
         <v>71</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>683</v>
@@ -10770,7 +10773,7 @@
         <v>71</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>686</v>
@@ -10787,7 +10790,7 @@
         <v>25</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>71</v>
@@ -10796,7 +10799,7 @@
         <v>785</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>276</v>
@@ -10822,7 +10825,7 @@
         <v>786</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>279</v>
@@ -10848,7 +10851,7 @@
         <v>787</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>282</v>
@@ -10874,7 +10877,7 @@
         <v>788</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>285</v>
@@ -10900,7 +10903,7 @@
         <v>789</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>288</v>
@@ -10926,7 +10929,7 @@
         <v>790</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>291</v>
@@ -10952,7 +10955,7 @@
         <v>791</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>294</v>
@@ -10978,7 +10981,7 @@
         <v>792</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>297</v>
@@ -11004,7 +11007,7 @@
         <v>793</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>300</v>
@@ -11030,7 +11033,7 @@
         <v>794</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>303</v>
@@ -11056,7 +11059,7 @@
         <v>795</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>306</v>
@@ -11082,7 +11085,7 @@
         <v>796</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>309</v>
@@ -11108,7 +11111,7 @@
         <v>797</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>312</v>
@@ -11134,7 +11137,7 @@
         <v>798</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>315</v>
@@ -11160,7 +11163,7 @@
         <v>799</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>318</v>
@@ -11186,7 +11189,7 @@
         <v>800</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>321</v>
@@ -11212,7 +11215,7 @@
         <v>801</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>324</v>
@@ -11238,7 +11241,7 @@
         <v>802</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>327</v>
@@ -11264,7 +11267,7 @@
         <v>803</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>330</v>
@@ -11290,7 +11293,7 @@
         <v>804</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>333</v>
@@ -11316,7 +11319,7 @@
         <v>805</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>336</v>
@@ -11342,7 +11345,7 @@
         <v>806</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>339</v>
@@ -11368,7 +11371,7 @@
         <v>807</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>342</v>
@@ -11391,7 +11394,7 @@
         <v>71</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>345</v>
@@ -11417,10 +11420,10 @@
         <v>785</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H227" s="3" t="s">
         <v>277</v>
@@ -11443,10 +11446,10 @@
         <v>786</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H228" s="3" t="s">
         <v>280</v>
@@ -11469,10 +11472,10 @@
         <v>792</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H229" s="3" t="s">
         <v>283</v>
@@ -11495,10 +11498,10 @@
         <v>793</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H230" s="3" t="s">
         <v>286</v>
@@ -11521,10 +11524,10 @@
         <v>794</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H231" s="3" t="s">
         <v>289</v>
@@ -11547,10 +11550,10 @@
         <v>798</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H232" s="3" t="s">
         <v>292</v>
@@ -11573,10 +11576,10 @@
         <v>799</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H233" s="3" t="s">
         <v>295</v>
@@ -11599,10 +11602,10 @@
         <v>800</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H234" s="3" t="s">
         <v>298</v>
@@ -11625,10 +11628,10 @@
         <v>801</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H235" s="3" t="s">
         <v>301</v>
@@ -11648,13 +11651,13 @@
         <v>71</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H236" s="3" t="s">
         <v>304</v>
@@ -11674,13 +11677,13 @@
         <v>71</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H237" s="3" t="s">
         <v>307</v>
@@ -11700,13 +11703,13 @@
         <v>71</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H238" s="3" t="s">
         <v>310</v>
@@ -11726,13 +11729,13 @@
         <v>71</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H239" s="3" t="s">
         <v>313</v>
@@ -11752,13 +11755,13 @@
         <v>71</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H240" s="3" t="s">
         <v>316</v>
@@ -11778,10 +11781,10 @@
         <v>71</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>319</v>
@@ -11801,10 +11804,10 @@
         <v>71</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H242" s="3" t="s">
         <v>322</v>
@@ -12058,7 +12061,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>252</v>
@@ -12067,7 +12070,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
@@ -12143,16 +12146,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12163,16 +12166,16 @@
         <v>225</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1346</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12183,16 +12186,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12203,16 +12206,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12223,16 +12226,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12243,16 +12246,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12263,16 +12266,16 @@
         <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>1360</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12283,16 +12286,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12303,16 +12306,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12323,16 +12326,16 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12343,16 +12346,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12363,16 +12366,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12383,16 +12386,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>1373</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12403,16 +12406,16 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12423,16 +12426,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12443,16 +12446,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12463,16 +12466,16 @@
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12483,16 +12486,16 @@
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>1381</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12503,16 +12506,16 @@
         <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12523,16 +12526,16 @@
         <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12543,16 +12546,16 @@
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>1386</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12563,16 +12566,16 @@
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12583,16 +12586,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12603,16 +12606,16 @@
         <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>1390</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12623,16 +12626,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12643,16 +12646,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12663,16 +12666,16 @@
         <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -12683,16 +12686,16 @@
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>1397</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12703,16 +12706,16 @@
         <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -12723,16 +12726,16 @@
         <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>1400</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12743,16 +12746,16 @@
         <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -12788,10 +12791,10 @@
         <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>273</v>
@@ -12808,10 +12811,10 @@
         <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>272</v>
@@ -12834,7 +12837,7 @@
         <v>244</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -12854,7 +12857,7 @@
         <v>245</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -12874,7 +12877,7 @@
         <v>246</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -12894,7 +12897,7 @@
         <v>247</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -12914,7 +12917,7 @@
         <v>248</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -12934,7 +12937,7 @@
         <v>249</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -12954,7 +12957,7 @@
         <v>250</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -12974,7 +12977,7 @@
         <v>251</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -13077,44 +13080,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1409</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1416</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1417</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1419</v>
       </c>
     </row>
   </sheetData>
@@ -13143,1922 +13146,1922 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
   </sheetData>
@@ -15071,7 +15074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B98D136-862D-440D-860B-C767349ED869}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15080,17 +15085,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>915</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>917</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>

--- a/BedivereKnx.GUI/data.xlsx
+++ b/BedivereKnx.GUI/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnx\BedivereKnx.GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7FDC6-09D2-402A-A5E9-0D28D7449019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9958D-C2D1-4CF8-B7C0-7E6A99EA586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7896,7 +7896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9671D8-C670-4FF9-9F5F-C699E4CE0AC7}">
   <dimension ref="A1:K446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -7904,7 +7904,7 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" style="3" bestFit="1" customWidth="1"/>

--- a/BedivereKnx.GUI/data.xlsx
+++ b/BedivereKnx.GUI/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnx\BedivereKnx.GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D66B4D-CB7F-40A0-A495-927962C7566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B338EDB-65FE-466D-88DA-960B8BE45403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="4" r:id="rId1"/>
@@ -7111,7 +7111,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7894,8 +7894,8 @@
   <dimension ref="A1:K446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16889,7 +16889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31720BA-9921-402A-8C00-F266998F9ACE}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
@@ -17702,9 +17702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88EA41A-0FF0-4A09-8A39-B393D7AEF7F8}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/BedivereKnx.GUI/data.xlsx
+++ b/BedivereKnx.GUI/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnx\BedivereKnx.GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B338EDB-65FE-466D-88DA-960B8BE45403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22427A85-C757-4FDA-A273-A707D5427964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="4" r:id="rId1"/>
@@ -7109,9 +7109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5F1EF3-A557-420C-BEFD-BB2F582D7A5A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7200,7 +7200,7 @@
         <v>3671</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7220,7 +7220,7 @@
         <v>3671</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17702,7 +17702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88EA41A-0FF0-4A09-8A39-B393D7AEF7F8}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
